--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1423.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1423.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.715975219956452</v>
+        <v>0.8769625425338745</v>
       </c>
       <c r="B1">
-        <v>2.05737512445075</v>
+        <v>1.448047161102295</v>
       </c>
       <c r="C1">
-        <v>2.138685103894434</v>
+        <v>6.4581298828125</v>
       </c>
       <c r="D1">
-        <v>2.599411411960039</v>
+        <v>1.869495749473572</v>
       </c>
       <c r="E1">
-        <v>3.205327087683508</v>
+        <v>1.08042049407959</v>
       </c>
     </row>
   </sheetData>
